--- a/biology/Botanique/Chusclan_(côtes-du-rhône_villages)/Chusclan_(côtes-du-rhône_villages).xlsx
+++ b/biology/Botanique/Chusclan_(côtes-du-rhône_villages)/Chusclan_(côtes-du-rhône_villages).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le chusclan[2], ou côtes-du-rhône villages Chusclan, est un vin produit autour de Chusclan, dans le département du Gard.
+Le chusclan, ou côtes-du-rhône villages Chusclan, est un vin produit autour de Chusclan, dans le département du Gard.
 Il s'agit d'une des vingt dénominations géographiques au sein de l'appellation d'origine contrôlée côtes-du-rhône villages, dans la partie méridionale du vignoble de la vallée du Rhône.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">De l'Antiquité au Moyen Âge
-Le peuple gaulois habitant cette région était les Volques Arécomiques.
-Période moderne
-Le village dépendait au XVIIe siècle de la Viguerie d'Uzès qui portait le nom de la « Côte du Rhône ».
-Période contemporaine
-L'AOC est attribuée aux communes de Chusclan, d'Orsan, de Bagnols-sur-Cèze, de Codolet et de Saint-Étienne-des-Sorts, pour les seuls vins rouges et rosés, conformément aux dispositions du jugement du tribunal civil d'Uzès en date du 6 février 1947 pour les rosés et en 1971, pour les rouges.
+          <t>De l'Antiquité au Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le peuple gaulois habitant cette région était les Volques Arécomiques.
 </t>
         </is>
       </c>
@@ -531,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +559,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le village dépendait au XVIIe siècle de la Viguerie d'Uzès qui portait le nom de la « Côte du Rhône ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AOC est attribuée aux communes de Chusclan, d'Orsan, de Bagnols-sur-Cèze, de Codolet et de Saint-Étienne-des-Sorts, pour les seuls vins rouges et rosés, conformément aux dispositions du jugement du tribunal civil d'Uzès en date du 6 février 1947 pour les rosés et en 1971, pour les rouges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon certains chercheurs
-[3]
 Chusclan viendrait de caousclan = tribu des Caous qui y aurait habité aux temps préhistoriques. D'autres disent que Gaulois et Romains ont laissé trois autres origines : 
 Chausclan = chaumes clan - réunion de chaumières -
 Hensclan = tribu d'un dieu gaulois et
@@ -561,37 +649,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orographie
-Géologie
-Les vignes sont implantées sur des terrasses gréseuses et caillouteuses ainsi que sur quelques bancs sableux.
-Climatologie
-La commune, située dans la zone d’influence du climat méditerranéen, est soumise à un rythme à quatre temps : deux saisons sèches, dont une brève en hiver, une très longue et accentuée en été ; deux saisons pluvieuses, en automne, avec des pluies abondantes sinon torrentielles, et au printemps. Les étés sont chauds et secs, liés à la remontée des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignes sont implantées sur des terrasses gréseuses et caillouteuses ainsi que sur quelques bancs sableux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commune, située dans la zone d’influence du climat méditerranéen, est soumise à un rythme à quatre temps : deux saisons sèches, dont une brève en hiver, une très longue et accentuée en été ; deux saisons pluvieuses, en automne, avec des pluies abondantes sinon torrentielles, et au printemps. Les étés sont chauds et secs, liés à la remontée des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare.
 Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
 Le mistral assainit le vignoble.
 La saisonnalité des pluies est très marquée.
@@ -600,108 +727,323 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présentation
-Le vignoble s'étend sur les communes de Chusclan, Orsan, Bagnols-sur-Cèze, Codolet et Saint-Étienne-des-Sorts.
-Encépagement
-Les rouges sont principalement fait à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N. 
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur les communes de Chusclan, Orsan, Bagnols-sur-Cèze, Codolet et Saint-Étienne-des-Sorts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges sont principalement fait à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N. 
 Les blancs sont principalement fait avec du grenache blanc B, de la clairette B, de la marsanne B, de la roussanne B, du bourboulenc B et du viognier B, complétés accessoirement par du piquepoul blanc B et de l'ugni blanc B.
-Méthodes culturales
-L'appellation couvre 259 hectares et produit annuellement 9 576 hectolitres avec un rendement moyen de 37 hl/ha.
-Terroir et vins
-L'histoire de la gastronomie a retenu que le vin de Chusclan fut fort apprécié à la cour de Louis XIV grâce aux « lapins d'Arbousset », une recette concoctée par le maréchal de Grammont.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation couvre 259 hectares et produit annuellement 9 576 hectolitres avec un rendement moyen de 37 hl/ha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire de la gastronomie a retenu que le vin de Chusclan fut fort apprécié à la cour de Louis XIV grâce aux « lapins d'Arbousset », une recette concoctée par le maréchal de Grammont.
 Les vins rouges colorés, équilibrés, aux notes fruitées sont marqués par des arômes de laurier et d'épices. Vins de semi-garde, ils s'apprécient, généralement, avant leur cinquième année.
-Les millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les millésimes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Structure des exploitations
-Type de vins et gastronomie
-Les vins rouges colorés, équilibrés, aux notes fruitées sont marqués par des arômes de laurier et d'épices. Vins de semi-garde, ils s'apprécient, généralement, avant leur cinquième année.
-Commercialisation</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins rouges colorés, équilibrés, aux notes fruitées sont marqués par des arômes de laurier et d'épices. Vins de semi-garde, ils s'apprécient, généralement, avant leur cinquième année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">La cave viticole des Vignerons de Chusclan font partie des producteurs du village de Chusclan
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chusclan_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chusclan_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>La place de Chusclan parmi les côtes-du-rhône villages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
